--- a/src/main/resources/static/工资导入模板.xlsx
+++ b/src/main/resources/static/工资导入模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weaver_xu.dy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ideaProject\tf-salary\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -184,8 +184,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -469,13 +470,16 @@
   <dimension ref="A1:AM1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">

--- a/src/main/resources/static/工资导入模板.xlsx
+++ b/src/main/resources/static/工资导入模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ideaProject\tf-salary\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\tf-salary\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">工号
 </t>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>补扣税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -478,7 +482,7 @@
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,10 +599,14 @@
       </c>
       <c r="AM1" t="s">
         <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>